--- a/estatico_dinamico plantilla - Granollers.xlsx
+++ b/estatico_dinamico plantilla - Granollers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ESTUDIS\APP\Viabilidad_promocion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81190080-C242-449E-9AF1-4FA2B0BDC794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697E03C-649D-4E3C-8F8B-2D03D512341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{198A80FC-B0D3-4197-8FD0-7182FE7EFF95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{198A80FC-B0D3-4197-8FD0-7182FE7EFF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Opcion1" sheetId="3" r:id="rId1"/>
@@ -1238,18 +1238,6 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1257,6 +1245,18 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Euro" xfId="2" xr:uid="{3D1D9C13-463F-4F91-AB3C-CF1269FD6287}"/>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="9" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="226"/>
+      <c r="B9" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="233"/>
       <c r="D9" s="17" t="s">
         <v>1</v>
       </c>
@@ -2172,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="226"/>
+      <c r="H9" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="233"/>
       <c r="J9" s="73" t="s">
         <v>1</v>
       </c>
@@ -2947,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DCD560-0773-4A17-84F8-A846B97CC47B}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3017,16 +3017,16 @@
         <f>B3*B5</f>
         <v>19259633</v>
       </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="230">
+      <c r="D7" s="225"/>
+      <c r="E7" s="226">
         <f>B7*0.4</f>
         <v>7703853.2000000002</v>
       </c>
-      <c r="F7" s="230">
+      <c r="F7" s="226">
         <f>B7*0.6</f>
         <v>11555779.799999999</v>
       </c>
-      <c r="G7" s="231">
+      <c r="G7" s="227">
         <f>F7*0.01</f>
         <v>115557.798</v>
       </c>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="228"/>
+      <c r="C12" s="235"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
@@ -3451,7 +3451,7 @@
       <c r="B49" s="85"/>
       <c r="C49" s="87">
         <f>SUM(B50:B51)</f>
-        <v>1305180</v>
+        <v>174208.41447239133</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,8 @@
         <v>49</v>
       </c>
       <c r="B50" s="85">
-        <v>1196415</v>
+        <f>'Presupuesto Tesorería def'!M49</f>
+        <v>58650.61647239131</v>
       </c>
       <c r="C50" s="86"/>
     </row>
@@ -3468,7 +3469,8 @@
         <v>27</v>
       </c>
       <c r="B51" s="85">
-        <v>108765</v>
+        <f>'Presupuesto Tesorería def'!M48</f>
+        <v>115557.79800000002</v>
       </c>
       <c r="C51" s="86"/>
     </row>
@@ -3484,7 +3486,7 @@
       <c r="B53" s="96"/>
       <c r="C53" s="6">
         <f>C43-C49</f>
-        <v>445695.72727273032</v>
+        <v>1576667.312800339</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3513,7 +3515,7 @@
       <c r="B57" s="99"/>
       <c r="C57" s="8">
         <f>C53/C55</f>
-        <v>148565.24242424345</v>
+        <v>525555.77093344636</v>
       </c>
     </row>
   </sheetData>
@@ -3532,11 +3534,11 @@
   </sheetPr>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3753,7 +3755,7 @@
       </c>
       <c r="C1" s="110">
         <f>M13*0.4</f>
-        <v>7703853.2000000002</v>
+        <v>7703853.200000002</v>
       </c>
       <c r="E1" s="24">
         <v>4.8599999999999997E-2</v>
@@ -3880,13 +3882,13 @@
         <v>0.624</v>
       </c>
       <c r="J7" s="222">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K7" s="222">
         <v>0.04</v>
       </c>
       <c r="L7" s="222">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M7" s="118"/>
     </row>
@@ -3998,7 +4000,7 @@
       </c>
       <c r="J13" s="139">
         <f t="shared" si="0"/>
-        <v>4622311.92</v>
+        <v>2311155.96</v>
       </c>
       <c r="K13" s="139">
         <f>$B$13*K$7</f>
@@ -4006,11 +4008,11 @@
       </c>
       <c r="L13" s="139">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2311155.96</v>
       </c>
       <c r="M13" s="165">
         <f>SUM(C13:L13)</f>
-        <v>19259633</v>
+        <v>19259633.000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -4128,7 +4130,7 @@
       </c>
       <c r="J17" s="143">
         <f t="shared" si="2"/>
-        <v>4658592.7562383488</v>
+        <v>2347436.7962383484</v>
       </c>
       <c r="K17" s="143">
         <f t="shared" si="2"/>
@@ -4136,7 +4138,7 @@
       </c>
       <c r="L17" s="143">
         <f t="shared" si="2"/>
-        <v>52733.773602250629</v>
+        <v>2363889.7336022505</v>
       </c>
       <c r="M17" s="165"/>
     </row>
@@ -4216,37 +4218,37 @@
         <v>5.128205128205128E-2</v>
       </c>
       <c r="M20" s="138"/>
-      <c r="Q20" s="232">
+      <c r="Q20" s="228">
         <v>0.85470085470085466</v>
       </c>
-      <c r="R20" s="233">
+      <c r="R20" s="229">
         <v>0.2</v>
       </c>
-      <c r="S20" s="233">
+      <c r="S20" s="229">
         <v>0.12</v>
       </c>
-      <c r="T20" s="233">
+      <c r="T20" s="229">
         <v>0.2</v>
       </c>
-      <c r="U20" s="233">
+      <c r="U20" s="229">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="V20" s="233">
+      <c r="V20" s="229">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="W20" s="233">
+      <c r="W20" s="229">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="X20" s="233">
+      <c r="X20" s="229">
         <v>6.88E-2</v>
       </c>
-      <c r="Y20" s="233">
+      <c r="Y20" s="229">
         <v>0.05</v>
       </c>
-      <c r="Z20" s="233">
+      <c r="Z20" s="229">
         <v>0.05</v>
       </c>
-      <c r="AA20" s="233">
+      <c r="AA20" s="229">
         <v>0.05</v>
       </c>
     </row>
@@ -4284,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="118"/>
-      <c r="Q21" s="232">
+      <c r="Q21" s="228">
         <v>5.9829059829059825E-2</v>
       </c>
       <c r="R21" s="12">
@@ -4352,7 +4354,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="M22" s="118"/>
-      <c r="Q22" s="232">
+      <c r="Q22" s="228">
         <v>4.2735042735042736E-2</v>
       </c>
       <c r="R22" s="12">
@@ -4414,7 +4416,7 @@
         <f t="shared" ref="M23:M29" si="4">SUM(C23:L23)</f>
         <v>1075180.9567165165</v>
       </c>
-      <c r="Q23" s="232">
+      <c r="Q23" s="228">
         <v>1.7094017094017092E-2</v>
       </c>
       <c r="R23" s="12">
@@ -4462,7 +4464,7 @@
       <c r="K24" s="139"/>
       <c r="L24" s="139"/>
       <c r="M24" s="165"/>
-      <c r="Q24" s="232">
+      <c r="Q24" s="228">
         <v>2.564102564102564E-2</v>
       </c>
       <c r="R24" s="12">
@@ -4616,43 +4618,43 @@
         <f t="shared" si="4"/>
         <v>962981.65000000014</v>
       </c>
-      <c r="R27" s="234">
+      <c r="R27" s="230">
         <f>$Q20*R20</f>
         <v>0.17094017094017094</v>
       </c>
-      <c r="S27" s="234">
+      <c r="S27" s="230">
         <f t="shared" ref="S27:AA27" si="7">$Q20*S20</f>
         <v>0.10256410256410256</v>
       </c>
-      <c r="T27" s="234">
+      <c r="T27" s="230">
         <f t="shared" si="7"/>
         <v>0.17094017094017094</v>
       </c>
-      <c r="U27" s="234">
+      <c r="U27" s="230">
         <f t="shared" si="7"/>
         <v>7.521367521367521E-2</v>
       </c>
-      <c r="V27" s="234">
+      <c r="V27" s="230">
         <f t="shared" si="7"/>
         <v>6.632478632478632E-2</v>
       </c>
-      <c r="W27" s="234">
+      <c r="W27" s="230">
         <f t="shared" si="7"/>
         <v>8.1709401709401705E-2</v>
       </c>
-      <c r="X27" s="234">
+      <c r="X27" s="230">
         <f t="shared" si="7"/>
         <v>5.88034188034188E-2</v>
       </c>
-      <c r="Y27" s="234">
+      <c r="Y27" s="230">
         <f t="shared" si="7"/>
         <v>4.2735042735042736E-2</v>
       </c>
-      <c r="Z27" s="234">
+      <c r="Z27" s="230">
         <f t="shared" si="7"/>
         <v>4.2735042735042736E-2</v>
       </c>
-      <c r="AA27" s="234">
+      <c r="AA27" s="230">
         <f t="shared" si="7"/>
         <v>4.2735042735042736E-2</v>
       </c>
@@ -4671,43 +4673,43 @@
       <c r="K28" s="139"/>
       <c r="L28" s="139"/>
       <c r="M28" s="165"/>
-      <c r="R28" s="234">
-        <f t="shared" ref="R28:AA33" si="8">$Q21*R21</f>
+      <c r="R28" s="230">
+        <f t="shared" ref="R28:AA31" si="8">$Q21*R21</f>
         <v>2.393162393162393E-2</v>
       </c>
-      <c r="S28" s="234">
+      <c r="S28" s="230">
         <f t="shared" si="8"/>
         <v>1.1965811965811965E-2</v>
       </c>
-      <c r="T28" s="234">
+      <c r="T28" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U28" s="234">
+      <c r="U28" s="230">
         <f t="shared" si="8"/>
         <v>1.1965811965811965E-2</v>
       </c>
-      <c r="V28" s="234">
+      <c r="V28" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W28" s="234">
+      <c r="W28" s="230">
         <f t="shared" si="8"/>
         <v>1.1965811965811965E-2</v>
       </c>
-      <c r="X28" s="234">
+      <c r="X28" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="234">
+      <c r="Y28" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="234">
+      <c r="Z28" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="234">
+      <c r="AA28" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4737,43 +4739,43 @@
         <f t="shared" si="4"/>
         <v>634040.76500000001</v>
       </c>
-      <c r="R29" s="234">
+      <c r="R29" s="230">
         <f t="shared" si="8"/>
         <v>3.4188034188034191E-2</v>
       </c>
-      <c r="S29" s="234">
+      <c r="S29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T29" s="234">
+      <c r="T29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U29" s="234">
+      <c r="U29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V29" s="234">
+      <c r="V29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W29" s="234">
+      <c r="W29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X29" s="234">
+      <c r="X29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="234">
+      <c r="Y29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="234">
+      <c r="Z29" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="234">
+      <c r="AA29" s="230">
         <f t="shared" si="8"/>
         <v>8.5470085470085479E-3</v>
       </c>
@@ -4792,43 +4794,43 @@
       <c r="K30" s="139"/>
       <c r="L30" s="139"/>
       <c r="M30" s="165"/>
-      <c r="R30" s="234">
+      <c r="R30" s="230">
         <f t="shared" si="8"/>
         <v>1.7094017094017092E-2</v>
       </c>
-      <c r="S30" s="234">
+      <c r="S30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T30" s="234">
+      <c r="T30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U30" s="234">
+      <c r="U30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V30" s="234">
+      <c r="V30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W30" s="234">
+      <c r="W30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X30" s="234">
+      <c r="X30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="234">
+      <c r="Y30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="234">
+      <c r="Z30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="234">
+      <c r="AA30" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4885,43 +4887,43 @@
         <f>SUM(C31:L31)</f>
         <v>1054675.4720450127</v>
       </c>
-      <c r="R31" s="234">
+      <c r="R31" s="230">
         <f t="shared" si="8"/>
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="S31" s="234">
+      <c r="S31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T31" s="234">
+      <c r="T31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U31" s="234">
+      <c r="U31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V31" s="234">
+      <c r="V31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W31" s="234">
+      <c r="W31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X31" s="234">
+      <c r="X31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="234">
+      <c r="Y31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="234">
+      <c r="Z31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="234">
+      <c r="AA31" s="230">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4940,43 +4942,43 @@
       <c r="K32" s="139"/>
       <c r="L32" s="139"/>
       <c r="M32" s="165"/>
-      <c r="R32" s="235">
+      <c r="R32" s="231">
         <f>SUM(R27:R31)</f>
         <v>0.27179487179487183</v>
       </c>
-      <c r="S32" s="235">
+      <c r="S32" s="231">
         <f t="shared" ref="S32:AA32" si="10">SUM(S27:S31)</f>
         <v>0.11452991452991453</v>
       </c>
-      <c r="T32" s="235">
+      <c r="T32" s="231">
         <f t="shared" si="10"/>
         <v>0.17094017094017094</v>
       </c>
-      <c r="U32" s="235">
+      <c r="U32" s="231">
         <f t="shared" si="10"/>
         <v>8.7179487179487175E-2</v>
       </c>
-      <c r="V32" s="235">
+      <c r="V32" s="231">
         <f t="shared" si="10"/>
         <v>6.632478632478632E-2</v>
       </c>
-      <c r="W32" s="235">
+      <c r="W32" s="231">
         <f t="shared" si="10"/>
         <v>9.367521367521367E-2</v>
       </c>
-      <c r="X32" s="235">
+      <c r="X32" s="231">
         <f t="shared" si="10"/>
         <v>5.88034188034188E-2</v>
       </c>
-      <c r="Y32" s="235">
+      <c r="Y32" s="231">
         <f t="shared" si="10"/>
         <v>4.2735042735042736E-2</v>
       </c>
-      <c r="Z32" s="235">
+      <c r="Z32" s="231">
         <f t="shared" si="10"/>
         <v>4.2735042735042736E-2</v>
       </c>
-      <c r="AA32" s="235">
+      <c r="AA32" s="231">
         <f t="shared" si="10"/>
         <v>5.128205128205128E-2</v>
       </c>
@@ -5081,7 +5083,7 @@
       </c>
       <c r="J35" s="166">
         <f>J17-J33</f>
-        <v>3767069.5084372233</v>
+        <v>1455913.5484372228</v>
       </c>
       <c r="K35" s="166">
         <f t="shared" si="12"/>
@@ -5089,11 +5091,11 @@
       </c>
       <c r="L35" s="166">
         <f>L17-L33</f>
-        <v>-734482.0311988747</v>
+        <v>1576673.9288011251</v>
       </c>
       <c r="M35" s="148">
         <f>SUM(C35:L35)</f>
-        <v>1750875.7272834857</v>
+        <v>1750875.7272834848</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5146,19 +5148,19 @@
       </c>
       <c r="J37" s="190">
         <f t="shared" si="13"/>
-        <v>2387532.4694823599</v>
+        <v>76376.509482359514</v>
       </c>
       <c r="K37" s="190">
         <f t="shared" si="13"/>
-        <v>2485357.7584823603</v>
+        <v>174201.79848235962</v>
       </c>
       <c r="L37" s="190">
         <f t="shared" si="13"/>
-        <v>1750875.7272834857</v>
+        <v>1750875.7272834848</v>
       </c>
       <c r="M37" s="150">
         <f>L37</f>
-        <v>1750875.7272834857</v>
+        <v>1750875.7272834848</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -5232,7 +5234,7 @@
       <c r="D42" s="139"/>
       <c r="E42" s="139">
         <f>(-E37+E48-C1)/0.9875</f>
-        <v>2614878.6259402228</v>
+        <v>2614878.6259402209</v>
       </c>
       <c r="F42" s="139">
         <f>(-F35+E49)/0.9875</f>
@@ -5248,11 +5250,11 @@
       </c>
       <c r="I42" s="139">
         <f>I50-H60</f>
-        <v>3492950.2237044172</v>
+        <v>3492950.2237044191</v>
       </c>
       <c r="J42" s="139">
         <f>J50-I60</f>
-        <v>2773387.1519999998</v>
+        <v>1386693.5759999999</v>
       </c>
       <c r="K42" s="139">
         <f>K50-J60</f>
@@ -5264,11 +5266,11 @@
       </c>
       <c r="M42" s="141">
         <f>0.6*M13</f>
-        <v>11555779.799999999</v>
+        <v>11555779.800000003</v>
       </c>
       <c r="N42" s="29">
         <f>SUM(E42:K42)</f>
-        <v>11555779.799999999</v>
+        <v>10169086.223999999</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -5301,7 +5303,7 @@
       </c>
       <c r="E44" s="145">
         <f t="shared" ref="E44" si="17">SUM(E41:E43)</f>
-        <v>2614878.6259402228</v>
+        <v>2614878.6259402209</v>
       </c>
       <c r="F44" s="145">
         <f t="shared" ref="F44" si="18">SUM(F41:F43)</f>
@@ -5317,11 +5319,11 @@
       </c>
       <c r="I44" s="145">
         <f t="shared" ref="I44" si="21">SUM(I41:I43)</f>
-        <v>3492950.2237044172</v>
+        <v>3492950.2237044191</v>
       </c>
       <c r="J44" s="145">
         <f t="shared" ref="J44" si="22">SUM(J41:J43)</f>
-        <v>2773387.1519999998</v>
+        <v>1386693.5759999999</v>
       </c>
       <c r="K44" s="145">
         <f t="shared" ref="K44" si="23">SUM(K41:K43)</f>
@@ -5333,7 +5335,7 @@
       </c>
       <c r="M44" s="146">
         <f>SUM(C44:L44)</f>
-        <v>11555779.799999999</v>
+        <v>10169086.223999999</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -5392,7 +5394,7 @@
       <c r="D48" s="139"/>
       <c r="E48" s="139">
         <f>0.01*M42</f>
-        <v>115557.798</v>
+        <v>115557.79800000002</v>
       </c>
       <c r="F48" s="139"/>
       <c r="G48" s="139"/>
@@ -5403,7 +5405,7 @@
       <c r="L48" s="139"/>
       <c r="M48" s="141">
         <f>SUM(E48:L48)</f>
-        <v>115557.798</v>
+        <v>115557.79800000002</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -5415,7 +5417,7 @@
       <c r="D49" s="139"/>
       <c r="E49" s="139">
         <f>E42*E1/4</f>
-        <v>31770.775305173705</v>
+        <v>31770.775305173684</v>
       </c>
       <c r="F49" s="139">
         <f>F42*E1/4</f>
@@ -5435,7 +5437,7 @@
       <c r="L49" s="139"/>
       <c r="M49" s="141">
         <f>SUM(E49:L49)</f>
-        <v>58650.616472391324</v>
+        <v>58650.61647239131</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -5455,7 +5457,7 @@
       </c>
       <c r="J50" s="139">
         <f>0.6*J13</f>
-        <v>2773387.1519999998</v>
+        <v>1386693.5759999999</v>
       </c>
       <c r="K50" s="139">
         <f>0.6*K13</f>
@@ -5466,7 +5468,7 @@
       </c>
       <c r="M50" s="141">
         <f>SUM(I50:L50)</f>
-        <v>11555779.799999999</v>
+        <v>10169086.223999999</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -5499,7 +5501,7 @@
       </c>
       <c r="E52" s="143">
         <f t="shared" si="25"/>
-        <v>147328.57330517369</v>
+        <v>147328.57330517372</v>
       </c>
       <c r="F52" s="143">
         <f t="shared" si="25"/>
@@ -5519,7 +5521,7 @@
       </c>
       <c r="J52" s="143">
         <f t="shared" si="25"/>
-        <v>2773387.1519999998</v>
+        <v>1386693.5759999999</v>
       </c>
       <c r="K52" s="143">
         <f t="shared" si="25"/>
@@ -5531,7 +5533,7 @@
       </c>
       <c r="M52" s="146">
         <f>SUM(C52:L52)</f>
-        <v>11729988.214472393</v>
+        <v>10343294.638472391</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5564,7 +5566,7 @@
       </c>
       <c r="E54" s="163">
         <f>E44-E52</f>
-        <v>2467550.052635049</v>
+        <v>2467550.0526350471</v>
       </c>
       <c r="F54" s="163">
         <f t="shared" si="26"/>
@@ -5580,7 +5582,7 @@
       </c>
       <c r="I54" s="163">
         <f>I44-I52</f>
-        <v>-4827211.232295583</v>
+        <v>-4827211.2322955811</v>
       </c>
       <c r="J54" s="163">
         <f t="shared" si="26"/>
@@ -5629,7 +5631,7 @@
       </c>
       <c r="E56" s="166">
         <f t="shared" si="27"/>
-        <v>-1011944.8179557468</v>
+        <v>-1011944.8179557486</v>
       </c>
       <c r="F56" s="166">
         <f>F44-F52+F35</f>
@@ -5645,11 +5647,11 @@
       </c>
       <c r="I56" s="166">
         <f>I44-I52+I35</f>
-        <v>6101376.7223898219</v>
+        <v>6101376.7223898238</v>
       </c>
       <c r="J56" s="166">
         <f t="shared" si="27"/>
-        <v>3767069.5084372233</v>
+        <v>1455913.5484372228</v>
       </c>
       <c r="K56" s="166">
         <f t="shared" si="27"/>
@@ -5657,11 +5659,11 @@
       </c>
       <c r="L56" s="166">
         <f>L44-L52+L35</f>
-        <v>-734482.0311988747</v>
+        <v>1576673.9288011251</v>
       </c>
       <c r="M56" s="148">
         <f>SUM(C56:L56)</f>
-        <v>1576667.3128110948</v>
+        <v>1576667.3128110939</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,19 +5696,19 @@
       </c>
       <c r="E58" s="166">
         <f>E56+D58</f>
-        <v>-7702937.9924809206</v>
+        <v>-7702937.9924809225</v>
       </c>
       <c r="F58" s="166">
         <f t="shared" si="28"/>
-        <v>-7670913.4401621707</v>
+        <v>-7670913.4401621725</v>
       </c>
       <c r="G58" s="166">
         <f t="shared" si="28"/>
-        <v>-7661917.6319923038</v>
+        <v>-7661917.6319923056</v>
       </c>
       <c r="H58" s="166">
         <f t="shared" si="28"/>
-        <v>-7655122.1758170761</v>
+        <v>-7655122.175817078</v>
       </c>
       <c r="I58" s="166">
         <f>I56+H58</f>
@@ -5714,19 +5716,19 @@
       </c>
       <c r="J58" s="166">
         <f t="shared" si="28"/>
-        <v>2213324.055009969</v>
+        <v>-97831.904990031384</v>
       </c>
       <c r="K58" s="166">
         <f t="shared" si="28"/>
-        <v>2311149.3440099694</v>
+        <v>-6.6159900312777609</v>
       </c>
       <c r="L58" s="166">
         <f t="shared" si="28"/>
-        <v>1576667.3128110948</v>
+        <v>1576667.3128110939</v>
       </c>
       <c r="M58" s="148">
         <f>L58</f>
-        <v>1576667.3128110948</v>
+        <v>1576667.3128110939</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5753,19 +5755,19 @@
       <c r="D60" s="143"/>
       <c r="E60" s="143">
         <f>E42</f>
-        <v>2614878.6259402228</v>
+        <v>2614878.6259402209</v>
       </c>
       <c r="F60" s="143">
         <f>E60+F42</f>
-        <v>3339955.8075865023</v>
+        <v>3339955.8075865004</v>
       </c>
       <c r="G60" s="143">
         <f>F60+G42</f>
-        <v>3871728.4157711789</v>
+        <v>3871728.415771177</v>
       </c>
       <c r="H60" s="143">
         <f t="shared" ref="H60:L60" si="29">G60+H42</f>
-        <v>4827211.232295583</v>
+        <v>4827211.2322955811</v>
       </c>
       <c r="I60" s="143">
         <v>0</v>
@@ -5843,11 +5845,11 @@
       </c>
       <c r="G65" s="174">
         <f>NPV($F65/4,$D$35:$L$35)+$C$35</f>
-        <v>1329176.3202635609</v>
+        <v>1301776.9059200594</v>
       </c>
       <c r="H65" s="174">
         <f>NPV($F65/4,$D$56:$L$56)+$C$56</f>
-        <v>1246391.0178364161</v>
+        <v>1218991.6034929156</v>
       </c>
       <c r="M65" s="111"/>
     </row>
@@ -5859,12 +5861,12 @@
         <v>0.05</v>
       </c>
       <c r="G66" s="174">
-        <f t="shared" ref="G65:G70" si="30">NPV($F66/4,$D$35:$L$35)+$C$35</f>
-        <v>927538.73280533683</v>
+        <f t="shared" ref="G66:G70" si="30">NPV($F66/4,$D$35:$L$35)+$C$35</f>
+        <v>875548.72671272326</v>
       </c>
       <c r="H66" s="174">
-        <f t="shared" ref="H65:H70" si="31">NPV($F66/4,$D$56:$L$56)+$C$56</f>
-        <v>930984.32691581361</v>
+        <f t="shared" ref="H66:H70" si="31">NPV($F66/4,$D$56:$L$56)+$C$56</f>
+        <v>878994.32082319725</v>
       </c>
       <c r="M66" s="111"/>
     </row>
@@ -5877,11 +5879,11 @@
       </c>
       <c r="G67" s="174">
         <f t="shared" si="30"/>
-        <v>180447.48297511227</v>
+        <v>86760.446614426561</v>
       </c>
       <c r="H67" s="174">
         <f t="shared" si="31"/>
-        <v>341886.77578716259</v>
+        <v>248199.73942647781</v>
       </c>
       <c r="M67" s="111"/>
     </row>
@@ -5894,11 +5896,11 @@
       </c>
       <c r="G68" s="174">
         <f t="shared" si="30"/>
-        <v>-1114065.5382611807</v>
+        <v>-1266769.1914662356</v>
       </c>
       <c r="H68" s="174">
         <f t="shared" si="31"/>
-        <v>-687600.58195534442</v>
+        <v>-840304.23516039923</v>
       </c>
       <c r="M68" s="111"/>
     </row>
@@ -5911,11 +5913,11 @@
       </c>
       <c r="G69" s="174">
         <f t="shared" si="30"/>
-        <v>-2183418.7282840963</v>
+        <v>-2371018.5578274759</v>
       </c>
       <c r="H69" s="174">
         <f t="shared" si="31"/>
-        <v>-1548630.2692215173</v>
+        <v>-1736230.0987648969</v>
       </c>
       <c r="M69" s="111"/>
     </row>
@@ -5928,11 +5930,11 @@
       </c>
       <c r="G70" s="174">
         <f t="shared" si="30"/>
-        <v>-3068351.6914620167</v>
+        <v>-3274184.3965099249</v>
       </c>
       <c r="H70" s="174">
         <f t="shared" si="31"/>
-        <v>-2270880.4751887699</v>
+        <v>-2476713.1802366795</v>
       </c>
       <c r="M70" s="111"/>
     </row>
@@ -5952,11 +5954,11 @@
       </c>
       <c r="G72" s="179">
         <f>IRR(C35:L35)*4</f>
-        <v>0.11283810336211975</v>
+        <v>0.10582927504597084</v>
       </c>
       <c r="H72" s="180">
         <f>IRR(C56:L56)*4</f>
-        <v>0.13125099583990352</v>
+        <v>0.12112793515708198</v>
       </c>
       <c r="M72" s="111"/>
     </row>
@@ -5987,7 +5989,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7062,10 +7064,10 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
